--- a/application/src/test/resources/CCD_TestDefinition_V30_RDM-2055.xlsx
+++ b/application/src/test/resources/CCD_TestDefinition_V30_RDM-2055.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5640" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="-14060" yWindow="-28340" windowWidth="51200" windowHeight="28340" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="277">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -884,6 +884,12 @@
   </si>
   <si>
     <t>Positive integer value to say which fields to show ReadOnly in the content section of the final submit page of an event (number is display order, blank means dont show)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boolean value to say if the event notes should be shown on the final submit page of an event </t>
+  </si>
+  <si>
+    <t>ShowEventNotes</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1392,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1566,6 +1572,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -15983,7 +15992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16087,7 +16098,9 @@
       <c r="Q2" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="R2" s="5"/>
+      <c r="R2" s="127" t="s">
+        <v>275</v>
+      </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -16144,7 +16157,9 @@
       <c r="Q3" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="R3" s="8"/>
+      <c r="R3" s="128" t="s">
+        <v>276</v>
+      </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -16185,7 +16200,9 @@
       <c r="Q4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="R4" s="4"/>
+      <c r="R4" s="129" t="s">
+        <v>172</v>
+      </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -16228,7 +16245,9 @@
       <c r="Q5" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="R5" s="4"/>
+      <c r="R5" s="129" t="s">
+        <v>176</v>
+      </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -16271,7 +16290,7 @@
       <c r="Q6" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="R6" s="4"/>
+      <c r="R6" s="129"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -16312,7 +16331,9 @@
       <c r="Q7" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="R7" s="4"/>
+      <c r="R7" s="129" t="s">
+        <v>172</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -16355,7 +16376,9 @@
       <c r="Q8" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="R8" s="4"/>
+      <c r="R8" s="129" t="s">
+        <v>172</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -16396,7 +16419,9 @@
         <v>49</v>
       </c>
       <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="R9" s="129" t="s">
+        <v>172</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -16644,7 +16669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
